--- a/TestData/Register.xlsx
+++ b/TestData/Register.xlsx
@@ -31,9 +31,6 @@
     <t>confirmpassword</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -73,10 +70,13 @@
     <t>nhl@gmail.com</t>
   </si>
   <si>
-    <t>luyen@gmail.com</t>
-  </si>
-  <si>
     <t>nhl</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>james_pan@nopCommerce.com</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -473,11 +473,11 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E2">
         <v>123456</v>
       </c>
@@ -485,7 +485,7 @@
         <v>123456</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,10 +493,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>123456</v>
@@ -505,7 +505,7 @@
         <v>123456</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -513,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4">
@@ -526,7 +526,7 @@
         <v>123456</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,19 +534,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F5">
         <v>123456</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -554,19 +554,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6">
         <v>123456</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -574,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>123456</v>
@@ -589,7 +589,7 @@
         <v>123456</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,13 +597,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>123456</v>
@@ -612,7 +612,7 @@
         <v>123456</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E9">
         <v>123</v>
@@ -635,7 +635,7 @@
         <v>123456</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E10">
         <v>123456</v>
@@ -658,7 +658,7 @@
         <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E11">
         <v>123456</v>
@@ -687,7 +687,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId2" display="luyen@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
